--- a/easypoi/src/main/resources/import/模版导入(test01_import).xlsx
+++ b/easypoi/src/main/resources/import/模版导入(test01_import).xlsx
@@ -1,35 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="模版导出" r:id="rId4" sheetId="1"/>
+    <sheet name="模版导出" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112" count="372">
-  <si>
-    <t>{{title}}</t>
-  </si>
-  <si>
-    <t>{{#fe: headers t}}</t>
-  </si>
-  <si>
-    <t>{{fe: students t.name</t>
-  </si>
-  <si>
-    <t>t.sex=1 ? 男:女</t>
-  </si>
-  <si>
-    <t>fd:(t.birthday;yyyy-MM-dd)}}</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+  <si>
+    <t>模版导出-学生数据</t>
   </si>
   <si>
     <t>学生姓名</t>
@@ -41,9 +26,6 @@
     <t>出生日期</t>
   </si>
   <si>
-    <t>模版导出-学生数据</t>
-  </si>
-  <si>
     <t>名称0</t>
   </si>
   <si>
@@ -56,13 +38,7 @@
     <t>名称1</t>
   </si>
   <si>
-    <t>名称2</t>
-  </si>
-  <si>
     <t>名称3</t>
-  </si>
-  <si>
-    <t>名称4</t>
   </si>
   <si>
     <t>名称5</t>
@@ -411,7 +387,7 @@
       </patternFill>
     </fill>
     <fill>
-      <gradientFill degree="270" type="linear">
+      <gradientFill type="linear" degree="270">
         <stop position="0">
           <color rgb="ffbad6ff"/>
         </stop>
@@ -421,7 +397,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -455,14 +431,84 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
       <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,7 +520,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -530,108 +576,85 @@
       <left style="thin">
         <color indexed="11"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="1" applyProtection="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="49">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="3" fontId="3" numFmtId="49">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="3" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="4" fontId="4" numFmtId="49">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="6" fillId="2" fontId="0" numFmtId="49">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="5" fontId="0" numFmtId="49">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="4" numFmtId="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="2" fontId="0" numFmtId="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="2" fontId="0" numFmtId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -759,7 +782,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -768,13 +791,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -819,7 +842,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -838,7 +861,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -850,7 +873,7 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln cap="flat" w="25400">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -860,11 +883,11 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr anchor="ctr" bIns="50800" horzOverflow="overflow" lIns="50800" numCol="1" rIns="50800" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="50800" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="0" marL="0" marR="0" rtl="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -879,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +917,7 @@
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -909,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +943,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -935,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +969,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -961,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +995,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -987,7 +1010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1021,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1013,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1047,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1039,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +1073,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1065,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1099,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1091,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1125,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1117,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1162,7 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln cap="flat" w="25400">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -1149,11 +1172,11 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr anchor="t" bIns="45719" horzOverflow="overflow" lIns="91439" numCol="1" rIns="91439" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="45719" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1168,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1202,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1194,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1228,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1220,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +1254,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1246,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,7 +1280,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1272,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,7 +1306,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1298,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1332,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1324,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1358,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1350,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1384,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1376,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,7 +1410,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1402,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,18 +1447,18 @@
     <a:txDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln cap="flat" w="12700">
+        <a:ln w="12700" cap="flat">
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr anchor="t" bIns="50800" horzOverflow="overflow" lIns="50800" numCol="1" rIns="50800" rot="0" rtlCol="0" spcCol="38100" spcFirstLastPara="1" tIns="50800" upright="0" vert="horz" vertOverflow="overflow" wrap="square">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="0" marL="0" marR="0" rtl="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1450,7 +1473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +1488,7 @@
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1480,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +1514,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1506,7 +1529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +1540,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1532,7 +1555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +1566,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1558,7 +1581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1569,7 +1592,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1584,7 +1607,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,7 +1618,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1610,7 +1633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,7 +1644,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1636,7 +1659,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,7 +1670,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1662,7 +1685,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1673,7 +1696,7 @@
             <a:uFillTx/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr algn="l" defTabSz="914400" fontAlgn="auto" hangingPunct="0" indent="0" latinLnBrk="1" marL="0" marR="0" rtl="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1688,7 +1711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" kumimoji="0" normalizeH="0" spc="0" strike="noStrike" sz="1800" u="none">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1712,1151 +1735,1336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="16.3333" defaultRowHeight="13.9" outlineLevelCol="0" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="30.9922" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.3516" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="40.2578" collapsed="false"/>
-    <col min="4" max="256" customWidth="true" style="1" width="16.3516" collapsed="false"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="31" r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="31" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="20.25" r="2">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row customHeight="true" ht="20.25" r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B8" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B10" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="20.25" customHeight="true">
-      <c r="A4" t="s" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="20.25" customHeight="true">
-      <c r="A5" t="s" s="7">
+      <c r="B12" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="20.25" customHeight="true">
-      <c r="A6" t="s" s="7">
+      <c r="B13" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="20.25" customHeight="true">
-      <c r="A7" t="s" s="7">
+      <c r="B14" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" customHeight="true">
-      <c r="A8" t="s" s="7">
+      <c r="B15" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="20.25" customHeight="true">
-      <c r="A9" t="s" s="7">
+      <c r="B16" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="20.25" customHeight="true">
-      <c r="A10" t="s" s="7">
+      <c r="B17" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="20.25" customHeight="true">
-      <c r="A11" t="s" s="7">
+      <c r="B18" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="20.25" customHeight="1">
+      <c r="A19" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="20.25" customHeight="true">
-      <c r="A12" t="s" s="7">
+      <c r="B19" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="20.25" customHeight="true">
-      <c r="A13" t="s" s="7">
+      <c r="B20" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="20.25" customHeight="true">
-      <c r="A14" t="s" s="7">
+      <c r="B21" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="20.25" customHeight="true">
-      <c r="A15" t="s" s="7">
+      <c r="B22" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="20.25" customHeight="true">
-      <c r="A16" t="s" s="7">
+      <c r="B23" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="20.25" customHeight="true">
-      <c r="A17" t="s" s="7">
+      <c r="B24" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B17" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="20.25" customHeight="true">
-      <c r="A18" t="s" s="7">
+      <c r="B25" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="B18" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="20.25" customHeight="true">
-      <c r="A19" t="s" s="7">
+      <c r="B26" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="B19" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="20.25" customHeight="true">
-      <c r="A20" t="s" s="7">
+      <c r="B27" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="20.25" customHeight="1">
+      <c r="A28" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="B20" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="20.25" customHeight="true">
-      <c r="A21" t="s" s="7">
+      <c r="B28" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" ht="20.25" customHeight="1">
+      <c r="A29" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="20.25" customHeight="true">
-      <c r="A22" t="s" s="7">
+      <c r="B29" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" ht="20.25" customHeight="1">
+      <c r="A30" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="B22" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="20.25" customHeight="true">
-      <c r="A23" t="s" s="7">
+      <c r="B30" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="20.25" customHeight="1">
+      <c r="A31" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="B23" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="20.25" customHeight="true">
-      <c r="A24" t="s" s="7">
+      <c r="B31" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" ht="20.25" customHeight="1">
+      <c r="A32" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="20.25" customHeight="true">
-      <c r="A25" t="s" s="7">
+      <c r="B32" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" ht="20.25" customHeight="1">
+      <c r="A33" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="B25" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="20.25" customHeight="true">
-      <c r="A26" t="s" s="7">
+      <c r="B33" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" ht="20.25" customHeight="1">
+      <c r="A34" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="B26" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="20.25" customHeight="true">
-      <c r="A27" t="s" s="7">
+      <c r="B34" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="20.25" customHeight="1">
+      <c r="A35" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B27" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="20.25" customHeight="true">
-      <c r="A28" t="s" s="7">
+      <c r="B35" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="20.25" customHeight="1">
+      <c r="A36" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B28" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="20.25" customHeight="true">
-      <c r="A29" t="s" s="7">
+      <c r="B36" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" ht="20.25" customHeight="1">
+      <c r="A37" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B29" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" ht="20.25" customHeight="true">
-      <c r="A30" t="s" s="7">
+      <c r="B37" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" ht="20.25" customHeight="1">
+      <c r="A38" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="B30" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" ht="20.25" customHeight="true">
-      <c r="A31" t="s" s="7">
+      <c r="B38" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" ht="20.25" customHeight="1">
+      <c r="A39" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="B31" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" ht="20.25" customHeight="true">
-      <c r="A32" t="s" s="7">
+      <c r="B39" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" ht="20.25" customHeight="1">
+      <c r="A40" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="B32" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" ht="20.25" customHeight="true">
-      <c r="A33" t="s" s="7">
+      <c r="B40" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="20.25" customHeight="1">
+      <c r="A41" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="B33" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" ht="20.25" customHeight="true">
-      <c r="A34" t="s" s="7">
+      <c r="B41" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" ht="20.25" customHeight="1">
+      <c r="A42" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="B34" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" ht="20.25" customHeight="true">
-      <c r="A35" t="s" s="7">
+      <c r="B42" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" ht="20.25" customHeight="1">
+      <c r="A43" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="B35" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" ht="20.25" customHeight="true">
-      <c r="A36" t="s" s="7">
+      <c r="B43" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" ht="20.25" customHeight="1">
+      <c r="A44" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="B36" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" ht="20.25" customHeight="true">
-      <c r="A37" t="s" s="7">
+      <c r="B44" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" ht="20.25" customHeight="1">
+      <c r="A45" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="B37" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="20.25" customHeight="true">
-      <c r="A38" t="s" s="7">
+      <c r="B45" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" ht="20.25" customHeight="1">
+      <c r="A46" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="B38" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" ht="20.25" customHeight="true">
-      <c r="A39" t="s" s="7">
+      <c r="B46" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" ht="20.25" customHeight="1">
+      <c r="A47" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="B39" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" ht="20.25" customHeight="true">
-      <c r="A40" t="s" s="7">
+      <c r="B47" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" ht="20.25" customHeight="1">
+      <c r="A48" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="B40" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" ht="20.25" customHeight="true">
-      <c r="A41" t="s" s="7">
+      <c r="B48" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" ht="20.25" customHeight="1">
+      <c r="A49" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="B41" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" ht="20.25" customHeight="true">
-      <c r="A42" t="s" s="7">
+      <c r="B49" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" ht="20.25" customHeight="1">
+      <c r="A50" t="s" s="9">
         <v>51</v>
       </c>
-      <c r="B42" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="20.25" customHeight="true">
-      <c r="A43" t="s" s="7">
+      <c r="B50" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" ht="20.25" customHeight="1">
+      <c r="A51" t="s" s="9">
         <v>52</v>
       </c>
-      <c r="B43" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="20.25" customHeight="true">
-      <c r="A44" t="s" s="7">
+      <c r="B51" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" ht="20.25" customHeight="1">
+      <c r="A52" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="B44" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" ht="20.25" customHeight="true">
-      <c r="A45" t="s" s="7">
+      <c r="B52" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" ht="20.25" customHeight="1">
+      <c r="A53" t="s" s="9">
         <v>54</v>
       </c>
-      <c r="B45" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="20.25" customHeight="true">
-      <c r="A46" t="s" s="7">
+      <c r="B53" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" ht="20.25" customHeight="1">
+      <c r="A54" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="B46" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="20.25" customHeight="true">
-      <c r="A47" t="s" s="7">
+      <c r="B54" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" ht="20.25" customHeight="1">
+      <c r="A55" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="B47" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" ht="20.25" customHeight="true">
-      <c r="A48" t="s" s="7">
+      <c r="B55" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" ht="20.25" customHeight="1">
+      <c r="A56" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="B48" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="20.25" customHeight="true">
-      <c r="A49" t="s" s="7">
+      <c r="B56" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" ht="20.25" customHeight="1">
+      <c r="A57" t="s" s="9">
         <v>58</v>
       </c>
-      <c r="B49" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="20.25" customHeight="true">
-      <c r="A50" t="s" s="7">
+      <c r="B57" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" ht="20.25" customHeight="1">
+      <c r="A58" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="B50" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="20.25" customHeight="true">
-      <c r="A51" t="s" s="7">
+      <c r="B58" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" ht="20.25" customHeight="1">
+      <c r="A59" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="B51" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="20.25" customHeight="true">
-      <c r="A52" t="s" s="7">
+      <c r="B59" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" ht="20.25" customHeight="1">
+      <c r="A60" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="B52" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="20.25" customHeight="true">
-      <c r="A53" t="s" s="7">
+      <c r="B60" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" ht="20.25" customHeight="1">
+      <c r="A61" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="B53" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="20.25" customHeight="true">
-      <c r="A54" t="s" s="7">
+      <c r="B61" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" ht="20.25" customHeight="1">
+      <c r="A62" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="B54" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="20.25" customHeight="true">
-      <c r="A55" t="s" s="7">
+      <c r="B62" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" ht="20.25" customHeight="1">
+      <c r="A63" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="B55" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="20.25" customHeight="true">
-      <c r="A56" t="s" s="7">
+      <c r="B63" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" ht="20.25" customHeight="1">
+      <c r="A64" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B56" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="20.25" customHeight="true">
-      <c r="A57" t="s" s="7">
+      <c r="B64" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" ht="20.25" customHeight="1">
+      <c r="A65" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="B57" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="20.25" customHeight="true">
-      <c r="A58" t="s" s="7">
+      <c r="B65" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" ht="20.25" customHeight="1">
+      <c r="A66" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="B58" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="20.25" customHeight="true">
-      <c r="A59" t="s" s="7">
+      <c r="B66" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" ht="20.25" customHeight="1">
+      <c r="A67" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="B59" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="20.25" customHeight="true">
-      <c r="A60" t="s" s="7">
+      <c r="B67" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" ht="20.25" customHeight="1">
+      <c r="A68" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="B60" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="20.25" customHeight="true">
-      <c r="A61" t="s" s="7">
+      <c r="B68" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" ht="20.25" customHeight="1">
+      <c r="A69" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="B61" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="20.25" customHeight="true">
-      <c r="A62" t="s" s="7">
+      <c r="B69" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" ht="20.25" customHeight="1">
+      <c r="A70" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="B62" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="20.25" customHeight="true">
-      <c r="A63" t="s" s="7">
+      <c r="B70" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" ht="20.25" customHeight="1">
+      <c r="A71" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="B63" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="20.25" customHeight="true">
-      <c r="A64" t="s" s="7">
+      <c r="B71" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" ht="20.25" customHeight="1">
+      <c r="A72" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B64" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="20.25" customHeight="true">
-      <c r="A65" t="s" s="7">
+      <c r="B72" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" ht="20.25" customHeight="1">
+      <c r="A73" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="B65" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="20.25" customHeight="true">
-      <c r="A66" t="s" s="7">
+      <c r="B73" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" ht="20.25" customHeight="1">
+      <c r="A74" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="B66" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="20.25" customHeight="true">
-      <c r="A67" t="s" s="7">
+      <c r="B74" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" ht="20.25" customHeight="1">
+      <c r="A75" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="B67" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="20.25" customHeight="true">
-      <c r="A68" t="s" s="7">
+      <c r="B75" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" ht="20.25" customHeight="1">
+      <c r="A76" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="B68" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C68" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" ht="20.25" customHeight="true">
-      <c r="A69" t="s" s="7">
+      <c r="B76" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" ht="20.25" customHeight="1">
+      <c r="A77" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="B69" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" ht="20.25" customHeight="true">
-      <c r="A70" t="s" s="7">
+      <c r="B77" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" ht="20.25" customHeight="1">
+      <c r="A78" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="B70" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" ht="20.25" customHeight="true">
-      <c r="A71" t="s" s="7">
+      <c r="B78" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" ht="20.25" customHeight="1">
+      <c r="A79" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="B71" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="20.25" customHeight="true">
-      <c r="A72" t="s" s="7">
+      <c r="B79" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" ht="20.25" customHeight="1">
+      <c r="A80" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="B72" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C72" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" ht="20.25" customHeight="true">
-      <c r="A73" t="s" s="7">
+      <c r="B80" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" ht="20.25" customHeight="1">
+      <c r="A81" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="B73" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" ht="20.25" customHeight="true">
-      <c r="A74" t="s" s="7">
+      <c r="B81" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" ht="20.25" customHeight="1">
+      <c r="A82" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="B74" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C74" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" ht="20.25" customHeight="true">
-      <c r="A75" t="s" s="7">
+      <c r="B82" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" ht="20.25" customHeight="1">
+      <c r="A83" t="s" s="9">
         <v>84</v>
       </c>
-      <c r="B75" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" ht="20.25" customHeight="true">
-      <c r="A76" t="s" s="7">
+      <c r="B83" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" ht="20.25" customHeight="1">
+      <c r="A84" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="B76" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" ht="20.25" customHeight="true">
-      <c r="A77" t="s" s="7">
+      <c r="B84" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" ht="20.25" customHeight="1">
+      <c r="A85" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="B77" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" ht="20.25" customHeight="true">
-      <c r="A78" t="s" s="7">
+      <c r="B85" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" ht="20.25" customHeight="1">
+      <c r="A86" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="B78" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" ht="20.25" customHeight="true">
-      <c r="A79" t="s" s="7">
+      <c r="B86" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" ht="20.25" customHeight="1">
+      <c r="A87" t="s" s="9">
         <v>88</v>
       </c>
-      <c r="B79" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="20.25" customHeight="true">
-      <c r="A80" t="s" s="7">
+      <c r="B87" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" ht="20.25" customHeight="1">
+      <c r="A88" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="B80" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" ht="20.25" customHeight="true">
-      <c r="A81" t="s" s="7">
+      <c r="B88" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" ht="20.25" customHeight="1">
+      <c r="A89" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="B81" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="20.25" customHeight="true">
-      <c r="A82" t="s" s="7">
+      <c r="B89" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" ht="20.25" customHeight="1">
+      <c r="A90" t="s" s="9">
         <v>91</v>
       </c>
-      <c r="B82" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="20.25" customHeight="true">
-      <c r="A83" t="s" s="7">
+      <c r="B90" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" ht="20.25" customHeight="1">
+      <c r="A91" t="s" s="9">
         <v>92</v>
       </c>
-      <c r="B83" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C83" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" ht="20.25" customHeight="true">
-      <c r="A84" t="s" s="7">
+      <c r="B91" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" ht="20.25" customHeight="1">
+      <c r="A92" t="s" s="9">
         <v>93</v>
       </c>
-      <c r="B84" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" ht="20.25" customHeight="true">
-      <c r="A85" t="s" s="7">
+      <c r="B92" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" ht="20.25" customHeight="1">
+      <c r="A93" t="s" s="9">
         <v>94</v>
       </c>
-      <c r="B85" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" ht="20.25" customHeight="true">
-      <c r="A86" t="s" s="7">
+      <c r="B93" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" ht="20.25" customHeight="1">
+      <c r="A94" t="s" s="9">
         <v>95</v>
       </c>
-      <c r="B86" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C86" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" ht="20.25" customHeight="true">
-      <c r="A87" t="s" s="7">
+      <c r="B94" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" ht="20.25" customHeight="1">
+      <c r="A95" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="B87" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C87" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" ht="20.25" customHeight="true">
-      <c r="A88" t="s" s="7">
+      <c r="B95" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" ht="20.25" customHeight="1">
+      <c r="A96" t="s" s="9">
         <v>97</v>
       </c>
-      <c r="B88" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" ht="20.25" customHeight="true">
-      <c r="A89" t="s" s="7">
+      <c r="B96" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" ht="20.25" customHeight="1">
+      <c r="A97" t="s" s="9">
         <v>98</v>
       </c>
-      <c r="B89" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C89" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="20.25" customHeight="true">
-      <c r="A90" t="s" s="7">
+      <c r="B97" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" ht="20.25" customHeight="1">
+      <c r="A98" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="B90" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="20.25" customHeight="true">
-      <c r="A91" t="s" s="7">
+      <c r="B98" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" ht="20.25" customHeight="1">
+      <c r="A99" t="s" s="9">
         <v>100</v>
       </c>
-      <c r="B91" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" ht="20.25" customHeight="true">
-      <c r="A92" t="s" s="7">
+      <c r="B99" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" ht="20.25" customHeight="1">
+      <c r="A100" t="s" s="9">
         <v>101</v>
       </c>
-      <c r="B92" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C92" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" ht="20.25" customHeight="true">
-      <c r="A93" t="s" s="7">
+      <c r="B100" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" ht="20.25" customHeight="1">
+      <c r="A101" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="B93" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C93" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" ht="20.25" customHeight="true">
-      <c r="A94" t="s" s="7">
+      <c r="B101" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" ht="20.25" customHeight="1">
+      <c r="A102" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="B94" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" ht="20.25" customHeight="true">
-      <c r="A95" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="20.25" customHeight="true">
-      <c r="A96" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="B96" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C96" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="20.25" customHeight="true">
-      <c r="A97" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B97" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C97" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" ht="20.25" customHeight="true">
-      <c r="A98" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="B98" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C98" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="20.25" customHeight="true">
-      <c r="A99" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B99" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C99" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="20.25" customHeight="true">
-      <c r="A100" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="B100" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C100" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" ht="20.25" customHeight="true">
-      <c r="A101" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="B101" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C101" t="s" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" ht="20.25" customHeight="true">
-      <c r="A102" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="B102" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s" s="9">
-        <v>12</v>
-      </c>
+      <c r="B102" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.277778" header="0.277778" left="0.5" right="0.5" top="0.75"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
